--- a/riwo/tests/source/test.xlsx
+++ b/riwo/tests/source/test.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
